--- a/Finalize logic tree/Kia_Sorento_Back Up Camera Not Working.xlsx
+++ b/Finalize logic tree/Kia_Sorento_Back Up Camera Not Working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544D537-D4A8-4E6F-BB73-A813A578A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF912C8-761E-46A9-85CF-6E231C578003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D4228E98-66A8-4732-9C9D-B43A0E08D19D}"/>
   </bookViews>
@@ -70,11 +70,6 @@
 10%Audio Control Unit</t>
   </si>
   <si>
-    <t>Possible_Problem60% Audio Control Unit
-30% Failed Camera
-10% Camera Cable / Connection:</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -114,6 +109,11 @@
   </si>
   <si>
     <t>Problem:When your vehicle is shifted into reverse, do you see a distorted image on the console display screen (i.e., like static, wavy lines or scrambling of the image)?</t>
+  </si>
+  <si>
+    <t>Possible_Problem:60% Audio Control Unit
+30% Failed Camera
+10% Camera Cable / Connection</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C426DD5-B1C7-46B5-96BF-BCDB5CC41472}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,37 +503,37 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="7" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -555,29 +555,29 @@
     </row>
     <row r="8" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -588,29 +588,29 @@
     </row>
     <row r="11" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -621,24 +621,24 @@
     </row>
     <row r="14" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
